--- a/Code/Results/Cases/Case_4_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.17653361279541</v>
+        <v>15.81101989289832</v>
       </c>
       <c r="C2">
-        <v>6.472506037713568</v>
+        <v>6.783469263426012</v>
       </c>
       <c r="D2">
-        <v>6.962925312625385</v>
+        <v>6.044966231151203</v>
       </c>
       <c r="E2">
-        <v>8.152118233175546</v>
+        <v>11.56995848728289</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>67.16131709161968</v>
+        <v>63.3751526831309</v>
       </c>
       <c r="H2">
-        <v>18.99972553454408</v>
+        <v>22.40348432731636</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.85862768731668</v>
+        <v>12.12358978834094</v>
       </c>
       <c r="L2">
-        <v>6.806750018463468</v>
+        <v>10.02090689288339</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.352988108078</v>
+        <v>15.70406812970731</v>
       </c>
       <c r="C3">
-        <v>6.331000998678903</v>
+        <v>6.727077132321249</v>
       </c>
       <c r="D3">
-        <v>6.470081279586299</v>
+        <v>5.936878113912289</v>
       </c>
       <c r="E3">
-        <v>7.987234057172084</v>
+        <v>11.56173579769607</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>64.34014560955656</v>
+        <v>62.56557699248685</v>
       </c>
       <c r="H3">
-        <v>18.49205121077845</v>
+        <v>22.30166302174474</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.11014706867276</v>
+        <v>12.073333964015</v>
       </c>
       <c r="L3">
-        <v>6.626404303117561</v>
+        <v>10.01898293633741</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.83439096387951</v>
+        <v>15.64355627489336</v>
       </c>
       <c r="C4">
-        <v>6.24218806301606</v>
+        <v>6.690948633323608</v>
       </c>
       <c r="D4">
-        <v>6.193853357368607</v>
+        <v>5.871396535223088</v>
       </c>
       <c r="E4">
-        <v>7.888769265405695</v>
+        <v>11.55835612323435</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>62.58468490033741</v>
+        <v>62.07145728175877</v>
       </c>
       <c r="H4">
-        <v>18.18258157567415</v>
+        <v>22.24131106177493</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.627202944741729</v>
+        <v>12.0467015912705</v>
       </c>
       <c r="L4">
-        <v>6.518173202946448</v>
+        <v>10.01975977099589</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.6200225353291</v>
+        <v>15.62022006136597</v>
       </c>
       <c r="C5">
-        <v>6.205491506300358</v>
+        <v>6.675848203110776</v>
       </c>
       <c r="D5">
-        <v>6.082307213695297</v>
+        <v>5.844973347909519</v>
       </c>
       <c r="E5">
-        <v>7.849355824236149</v>
+        <v>11.55739948661268</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>61.86411328702478</v>
+        <v>61.87102197081327</v>
       </c>
       <c r="H5">
-        <v>18.0571003151862</v>
+        <v>22.21727239562632</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.424441545624139</v>
+        <v>12.03692153788667</v>
       </c>
       <c r="L5">
-        <v>6.474730901684167</v>
+        <v>10.0205692754815</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.58425090798495</v>
+        <v>15.61642571043213</v>
       </c>
       <c r="C6">
-        <v>6.199367070055755</v>
+        <v>6.67331798088866</v>
       </c>
       <c r="D6">
-        <v>6.063659222103666</v>
+        <v>5.840602690138511</v>
       </c>
       <c r="E6">
-        <v>7.842854651533428</v>
+        <v>11.557266064147</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>61.74416926081195</v>
+        <v>61.83780069556079</v>
       </c>
       <c r="H6">
-        <v>18.03630435424892</v>
+        <v>22.2133146189798</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.39041110545773</v>
+        <v>12.03536263810614</v>
       </c>
       <c r="L6">
-        <v>6.46755837490783</v>
+        <v>10.02073347657756</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.83151188036282</v>
+        <v>15.64323616581842</v>
       </c>
       <c r="C7">
-        <v>6.241695227546671</v>
+        <v>6.690746512791337</v>
       </c>
       <c r="D7">
-        <v>6.192357505354583</v>
+        <v>5.871039074900001</v>
       </c>
       <c r="E7">
-        <v>7.888234821445102</v>
+        <v>11.55834151761518</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>62.57498717687747</v>
+        <v>62.06875017338746</v>
       </c>
       <c r="H7">
-        <v>18.18088664834635</v>
+        <v>22.24098460663279</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.624492658194072</v>
+        <v>12.04656533755967</v>
       </c>
       <c r="L7">
-        <v>6.517584596044022</v>
+        <v>10.01976869182987</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.89537342071695</v>
+        <v>15.77308903402618</v>
       </c>
       <c r="C8">
-        <v>6.424102604112347</v>
+        <v>6.764337465716776</v>
       </c>
       <c r="D8">
-        <v>6.796219952027788</v>
+        <v>6.007536929699472</v>
       </c>
       <c r="E8">
-        <v>8.094698520962915</v>
+        <v>11.56677747765337</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>66.19375085243077</v>
+        <v>63.09550300682747</v>
       </c>
       <c r="H8">
-        <v>18.82425059776036</v>
+        <v>22.36793307762791</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.60535267202833</v>
+        <v>12.10539149124784</v>
       </c>
       <c r="L8">
-        <v>6.744067167646341</v>
+        <v>10.01983749279802</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.96260866230394</v>
+        <v>16.0673801499365</v>
       </c>
       <c r="C9">
-        <v>6.767551022354552</v>
+        <v>6.896711608306524</v>
       </c>
       <c r="D9">
-        <v>7.94142641957211</v>
+        <v>6.280539739588145</v>
       </c>
       <c r="E9">
-        <v>8.521040316580573</v>
+        <v>11.59651803813078</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>73.0837473589546</v>
+        <v>65.1246185259731</v>
       </c>
       <c r="H9">
-        <v>20.10131692872842</v>
+        <v>22.63358729583828</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.34730005846995</v>
+        <v>12.25373251606875</v>
       </c>
       <c r="L9">
-        <v>7.206712429506325</v>
+        <v>10.03547675628771</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.53557711395064</v>
+        <v>16.30591100603259</v>
       </c>
       <c r="C10">
-        <v>7.012923566967396</v>
+        <v>6.986686478668654</v>
       </c>
       <c r="D10">
-        <v>8.712215644084788</v>
+        <v>6.482133361136261</v>
       </c>
       <c r="E10">
-        <v>8.846818472434817</v>
+        <v>11.62634357310261</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>77.9998704175036</v>
+        <v>66.61443576404328</v>
       </c>
       <c r="H10">
-        <v>21.04678399440887</v>
+        <v>22.83826612496435</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.52245922236282</v>
+        <v>12.3819933347429</v>
       </c>
       <c r="L10">
-        <v>7.556440153838018</v>
+        <v>10.05636197004015</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.22385281941942</v>
+        <v>16.41883524718436</v>
       </c>
       <c r="C11">
-        <v>7.123506937862207</v>
+        <v>7.026037929165688</v>
       </c>
       <c r="D11">
-        <v>9.048462257618846</v>
+        <v>6.573609758408057</v>
       </c>
       <c r="E11">
-        <v>8.997707570780612</v>
+        <v>11.64162474095863</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>80.20302554477999</v>
+        <v>67.28977238656225</v>
       </c>
       <c r="H11">
-        <v>21.47832821870571</v>
+        <v>22.93328532621208</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.0358290622709</v>
+        <v>12.44431952226718</v>
       </c>
       <c r="L11">
-        <v>7.717483694428252</v>
+        <v>10.06788604482039</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.48071517120717</v>
+        <v>16.46219293071936</v>
       </c>
       <c r="C12">
-        <v>7.165278854652676</v>
+        <v>7.040712253289068</v>
       </c>
       <c r="D12">
-        <v>9.173804788843281</v>
+        <v>6.608180339508592</v>
       </c>
       <c r="E12">
-        <v>9.055235218506768</v>
+        <v>11.64765571210227</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>81.03256087304149</v>
+        <v>67.54497974995351</v>
       </c>
       <c r="H12">
-        <v>21.64196362792055</v>
+        <v>22.96952688597961</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.22731462146365</v>
+        <v>12.46847362548043</v>
       </c>
       <c r="L12">
-        <v>7.778741089244924</v>
+        <v>10.07253894375041</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.42556043849739</v>
+        <v>16.45282921879013</v>
       </c>
       <c r="C13">
-        <v>7.156286331508882</v>
+        <v>7.037561983587526</v>
       </c>
       <c r="D13">
-        <v>9.146896998785643</v>
+        <v>6.600738603766082</v>
       </c>
       <c r="E13">
-        <v>9.042828193267692</v>
+        <v>11.64634600305599</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>80.85411510129687</v>
+        <v>67.49004265128272</v>
       </c>
       <c r="H13">
-        <v>21.60671165954441</v>
+        <v>22.96171030104787</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.18620220209509</v>
+        <v>12.46324735994394</v>
       </c>
       <c r="L13">
-        <v>7.765536051120534</v>
+        <v>10.07152404016533</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.24505971398447</v>
+        <v>16.42239059922462</v>
       </c>
       <c r="C14">
-        <v>7.126945328854767</v>
+        <v>7.027249749500173</v>
       </c>
       <c r="D14">
-        <v>9.058813581325211</v>
+        <v>6.576455498203858</v>
       </c>
       <c r="E14">
-        <v>9.002432568180895</v>
+        <v>11.6421160284537</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>80.27136652648727</v>
+        <v>67.31078007269517</v>
       </c>
       <c r="H14">
-        <v>21.4917860706483</v>
+        <v>22.93626181969961</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.05164032569941</v>
+        <v>12.44629573858441</v>
       </c>
       <c r="L14">
-        <v>7.72251789838488</v>
+        <v>10.06826306214797</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.13401130974762</v>
+        <v>16.40382246395017</v>
       </c>
       <c r="C15">
-        <v>7.108961097353676</v>
+        <v>7.020903612313119</v>
       </c>
       <c r="D15">
-        <v>9.004603785963592</v>
+        <v>6.561571281338073</v>
       </c>
       <c r="E15">
-        <v>8.977739947372157</v>
+        <v>11.63955680065029</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>79.91380041202666</v>
+        <v>67.20090240775622</v>
       </c>
       <c r="H15">
-        <v>21.4214200546295</v>
+        <v>22.92070728350394</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.96884170480808</v>
+        <v>12.43598373073312</v>
       </c>
       <c r="L15">
-        <v>7.69620363418219</v>
+        <v>10.0663031902635</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.49006009263882</v>
+        <v>16.2986166656455</v>
       </c>
       <c r="C16">
-        <v>7.005679546378412</v>
+        <v>6.984082984236685</v>
       </c>
       <c r="D16">
-        <v>8.689958460504874</v>
+        <v>6.476147384676654</v>
       </c>
       <c r="E16">
-        <v>8.837011713507129</v>
+        <v>11.6253792191591</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>77.85521972695555</v>
+        <v>66.57023699967688</v>
       </c>
       <c r="H16">
-        <v>21.01861110729671</v>
+        <v>22.8320935747188</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.48849355630778</v>
+        <v>12.37799859237003</v>
       </c>
       <c r="L16">
-        <v>7.545954048238371</v>
+        <v>10.05564939630183</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.08813030467721</v>
+        <v>16.23517968965044</v>
       </c>
       <c r="C17">
-        <v>6.942084212635065</v>
+        <v>6.961090242431703</v>
       </c>
       <c r="D17">
-        <v>8.493304603755728</v>
+        <v>6.423657302423165</v>
       </c>
       <c r="E17">
-        <v>8.751368376363301</v>
+        <v>11.61711917018286</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>76.58381532036677</v>
+        <v>66.18259989510325</v>
       </c>
       <c r="H17">
-        <v>20.77187228283371</v>
+        <v>22.77821072192606</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.18847303496938</v>
+        <v>12.34343221315477</v>
       </c>
       <c r="L17">
-        <v>7.454272801089144</v>
+        <v>10.0496305350051</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.85437333568574</v>
+        <v>16.1991104442778</v>
       </c>
       <c r="C18">
-        <v>6.905405059849157</v>
+        <v>6.947716853526598</v>
       </c>
       <c r="D18">
-        <v>8.378834769811775</v>
+        <v>6.393446879805803</v>
       </c>
       <c r="E18">
-        <v>8.702361396108001</v>
+        <v>11.6125296161391</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>75.84940112268079</v>
+        <v>65.9594272579223</v>
       </c>
       <c r="H18">
-        <v>20.63008885378089</v>
+        <v>22.74739940443859</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.01390341934493</v>
+        <v>12.32392639549916</v>
       </c>
       <c r="L18">
-        <v>7.401723673419658</v>
+        <v>10.04635922042535</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.77478034761091</v>
+        <v>16.18697098855047</v>
       </c>
       <c r="C19">
-        <v>6.892967535419388</v>
+        <v>6.943163343862367</v>
       </c>
       <c r="D19">
-        <v>8.339841325291136</v>
+        <v>6.383215937162849</v>
       </c>
       <c r="E19">
-        <v>8.685811926679882</v>
+        <v>11.61100345331866</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>75.60020392414131</v>
+        <v>65.88383376412656</v>
       </c>
       <c r="H19">
-        <v>20.58210649542642</v>
+        <v>22.73699869464753</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.95444878103003</v>
+        <v>12.31738719549668</v>
       </c>
       <c r="L19">
-        <v>7.383963308833497</v>
+        <v>10.04528439662328</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.13118217515628</v>
+        <v>16.24188968034645</v>
       </c>
       <c r="C20">
-        <v>6.948864167796762</v>
+        <v>6.963553237343692</v>
       </c>
       <c r="D20">
-        <v>8.514378897175412</v>
+        <v>6.429247250797711</v>
       </c>
       <c r="E20">
-        <v>8.760459095596742</v>
+        <v>11.61798177569076</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>76.71948330415799</v>
+        <v>66.22388802694755</v>
       </c>
       <c r="H20">
-        <v>20.79812415178483</v>
+        <v>22.78392805009755</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.22061738833935</v>
+        <v>12.34707310365268</v>
       </c>
       <c r="L20">
-        <v>7.464013512286054</v>
+        <v>10.05025154268747</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.29817823922974</v>
+        <v>16.43131530981455</v>
       </c>
       <c r="C21">
-        <v>7.135565906178129</v>
+        <v>7.030284870748618</v>
       </c>
       <c r="D21">
-        <v>9.084739041348442</v>
+        <v>6.583590205491316</v>
       </c>
       <c r="E21">
-        <v>9.01428712864411</v>
+        <v>11.64335186102497</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>80.44266200427418</v>
+        <v>67.36344961533585</v>
       </c>
       <c r="H21">
-        <v>21.52553635970032</v>
+        <v>22.94372972341207</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.09124242284908</v>
+        <v>12.4512600083071</v>
       </c>
       <c r="L21">
-        <v>7.735145953524104</v>
+        <v>10.06921306447589</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.03897317440749</v>
+        <v>16.55856933152689</v>
       </c>
       <c r="C22">
-        <v>7.257008763332738</v>
+        <v>7.072573389245321</v>
       </c>
       <c r="D22">
-        <v>9.445966013000517</v>
+        <v>6.684041119090535</v>
       </c>
       <c r="E22">
-        <v>9.182453069405913</v>
+        <v>11.66135569364427</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>82.84838621514952</v>
+        <v>68.10505920907652</v>
       </c>
       <c r="H22">
-        <v>22.00224037771982</v>
+        <v>23.04967677924213</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.64331955124864</v>
+        <v>12.52256278957121</v>
       </c>
       <c r="L22">
-        <v>7.913945595505208</v>
+        <v>10.08328883171742</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.64554588102666</v>
+        <v>16.49034870329508</v>
       </c>
       <c r="C23">
-        <v>7.192228327149569</v>
+        <v>7.050124461080473</v>
       </c>
       <c r="D23">
-        <v>9.254198658762053</v>
+        <v>6.630478752278816</v>
       </c>
       <c r="E23">
-        <v>9.092489105316394</v>
+        <v>11.65161723467602</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>81.56688691192754</v>
+        <v>67.70959715017601</v>
       </c>
       <c r="H23">
-        <v>21.74768608336653</v>
+        <v>22.9929979150697</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.35016628583283</v>
+        <v>12.48422019649977</v>
       </c>
       <c r="L23">
-        <v>7.818370386221115</v>
+        <v>10.07562302111448</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.11172678992296</v>
+        <v>16.23885483991041</v>
       </c>
       <c r="C24">
-        <v>6.945799318937211</v>
+        <v>6.962440198763474</v>
       </c>
       <c r="D24">
-        <v>8.504855609923847</v>
+        <v>6.426720135699177</v>
       </c>
       <c r="E24">
-        <v>8.756348463504056</v>
+        <v>11.61759129553309</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>76.65815860733065</v>
+        <v>66.20522262928755</v>
       </c>
       <c r="H24">
-        <v>20.78625546430167</v>
+        <v>22.78134272574688</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.20609142679852</v>
+        <v>12.34542591286192</v>
       </c>
       <c r="L24">
-        <v>7.459609238861346</v>
+        <v>10.04997019623729</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.35829116825323</v>
+        <v>15.98370545594099</v>
       </c>
       <c r="C25">
-        <v>6.676001955225606</v>
+        <v>6.862179340597359</v>
       </c>
       <c r="D25">
-        <v>7.644307992612998</v>
+        <v>6.206347970868531</v>
       </c>
       <c r="E25">
-        <v>8.403471803216508</v>
+        <v>11.58706600878184</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>71.24446794797737</v>
+        <v>64.5751018599542</v>
       </c>
       <c r="H25">
-        <v>19.75446416164224</v>
+        <v>22.56000002298026</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.89490116959812</v>
+        <v>12.2101512194327</v>
       </c>
       <c r="L25">
-        <v>7.079742346061364</v>
+        <v>10.02959093542027</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_163/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_163/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.81101989289832</v>
+        <v>14.17653361279539</v>
       </c>
       <c r="C2">
-        <v>6.783469263426012</v>
+        <v>6.472506037713702</v>
       </c>
       <c r="D2">
-        <v>6.044966231151203</v>
+        <v>6.962925312625521</v>
       </c>
       <c r="E2">
-        <v>11.56995848728289</v>
+        <v>8.152118233175559</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>63.3751526831309</v>
+        <v>67.16131709161965</v>
       </c>
       <c r="H2">
-        <v>22.40348432731636</v>
+        <v>18.99972553454418</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>12.12358978834094</v>
+        <v>10.85862768731672</v>
       </c>
       <c r="L2">
-        <v>10.02090689288339</v>
+        <v>6.806750018463468</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.70406812970731</v>
+        <v>13.35298810807799</v>
       </c>
       <c r="C3">
-        <v>6.727077132321249</v>
+        <v>6.331000998678908</v>
       </c>
       <c r="D3">
-        <v>5.936878113912289</v>
+        <v>6.470081279586112</v>
       </c>
       <c r="E3">
-        <v>11.56173579769607</v>
+        <v>7.987234057172084</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>62.56557699248685</v>
+        <v>64.34014560955653</v>
       </c>
       <c r="H3">
-        <v>22.30166302174474</v>
+        <v>18.49205121077852</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.073333964015</v>
+        <v>10.11014706867273</v>
       </c>
       <c r="L3">
-        <v>10.01898293633741</v>
+        <v>6.626404303117563</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.64355627489336</v>
+        <v>12.8343909638795</v>
       </c>
       <c r="C4">
-        <v>6.690948633323608</v>
+        <v>6.242188063016059</v>
       </c>
       <c r="D4">
-        <v>5.871396535223088</v>
+        <v>6.193853357368603</v>
       </c>
       <c r="E4">
-        <v>11.55835612323435</v>
+        <v>7.888769265405669</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>62.07145728175877</v>
+        <v>62.58468490033715</v>
       </c>
       <c r="H4">
-        <v>22.24131106177493</v>
+        <v>18.18258157567408</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.0467015912705</v>
+        <v>9.62720294474175</v>
       </c>
       <c r="L4">
-        <v>10.01975977099589</v>
+        <v>6.518173202946436</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.62022006136597</v>
+        <v>12.62002253532913</v>
       </c>
       <c r="C5">
-        <v>6.675848203110776</v>
+        <v>6.205491506300357</v>
       </c>
       <c r="D5">
-        <v>5.844973347909519</v>
+        <v>6.082307213695288</v>
       </c>
       <c r="E5">
-        <v>11.55739948661268</v>
+        <v>7.849355824236107</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>61.87102197081327</v>
+        <v>61.86411328702511</v>
       </c>
       <c r="H5">
-        <v>22.21727239562632</v>
+        <v>18.05710031518622</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.03692153788667</v>
+        <v>9.424441545624042</v>
       </c>
       <c r="L5">
-        <v>10.0205692754815</v>
+        <v>6.474730901684198</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.61642571043213</v>
+        <v>12.58425090798492</v>
       </c>
       <c r="C6">
-        <v>6.67331798088866</v>
+        <v>6.199367070055892</v>
       </c>
       <c r="D6">
-        <v>5.840602690138511</v>
+        <v>6.063659222103698</v>
       </c>
       <c r="E6">
-        <v>11.557266064147</v>
+        <v>7.842854651533503</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>61.83780069556079</v>
+        <v>61.74416926081183</v>
       </c>
       <c r="H6">
-        <v>22.2133146189798</v>
+        <v>18.03630435424896</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.03536263810614</v>
+        <v>9.390411105457783</v>
       </c>
       <c r="L6">
-        <v>10.02073347657756</v>
+        <v>6.467558374907843</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.64323616581842</v>
+        <v>12.83151188036283</v>
       </c>
       <c r="C7">
-        <v>6.690746512791337</v>
+        <v>6.241695227546927</v>
       </c>
       <c r="D7">
-        <v>5.871039074900001</v>
+        <v>6.192357505354572</v>
       </c>
       <c r="E7">
-        <v>11.55834151761518</v>
+        <v>7.888234821445109</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>62.06875017338746</v>
+        <v>62.57498717687777</v>
       </c>
       <c r="H7">
-        <v>22.24098460663279</v>
+        <v>18.1808866483464</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.04656533755967</v>
+        <v>9.624492658194026</v>
       </c>
       <c r="L7">
-        <v>10.01976869182987</v>
+        <v>6.517584596043943</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.77308903402618</v>
+        <v>13.8953734207169</v>
       </c>
       <c r="C8">
-        <v>6.764337465716776</v>
+        <v>6.424102604112085</v>
       </c>
       <c r="D8">
-        <v>6.007536929699472</v>
+        <v>6.796219952027863</v>
       </c>
       <c r="E8">
-        <v>11.56677747765337</v>
+        <v>8.094698520962933</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>63.09550300682747</v>
+        <v>66.19375085243084</v>
       </c>
       <c r="H8">
-        <v>22.36793307762791</v>
+        <v>18.82425059776034</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>12.10539149124784</v>
+        <v>10.60535267202832</v>
       </c>
       <c r="L8">
-        <v>10.01983749279802</v>
+        <v>6.74406716764641</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.0673801499365</v>
+        <v>15.962608662304</v>
       </c>
       <c r="C9">
-        <v>6.896711608306524</v>
+        <v>6.767551022354415</v>
       </c>
       <c r="D9">
-        <v>6.280539739588145</v>
+        <v>7.941426419572109</v>
       </c>
       <c r="E9">
-        <v>11.59651803813078</v>
+        <v>8.521040316580473</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>65.1246185259731</v>
+        <v>73.08374735895471</v>
       </c>
       <c r="H9">
-        <v>22.63358729583828</v>
+        <v>20.10131692872846</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.25373251606875</v>
+        <v>12.34730005847003</v>
       </c>
       <c r="L9">
-        <v>10.03547675628771</v>
+        <v>7.206712429506282</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.30591100603259</v>
+        <v>17.53557711395061</v>
       </c>
       <c r="C10">
-        <v>6.986686478668654</v>
+        <v>7.012923566967415</v>
       </c>
       <c r="D10">
-        <v>6.482133361136261</v>
+        <v>8.712215644084674</v>
       </c>
       <c r="E10">
-        <v>11.62634357310261</v>
+        <v>8.846818472434798</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>66.61443576404328</v>
+        <v>77.99987041750337</v>
       </c>
       <c r="H10">
-        <v>22.83826612496435</v>
+        <v>21.04678399440884</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.3819933347429</v>
+        <v>13.52245922236279</v>
       </c>
       <c r="L10">
-        <v>10.05636197004015</v>
+        <v>7.556440153838036</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.41883524718436</v>
+        <v>18.22385281941945</v>
       </c>
       <c r="C11">
-        <v>7.026037929165688</v>
+        <v>7.123506937861953</v>
       </c>
       <c r="D11">
-        <v>6.573609758408057</v>
+        <v>9.048462257618903</v>
       </c>
       <c r="E11">
-        <v>11.64162474095863</v>
+        <v>8.997707570780538</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>67.28977238656225</v>
+        <v>80.20302554478013</v>
       </c>
       <c r="H11">
-        <v>22.93328532621208</v>
+        <v>21.47832821870571</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.44431952226718</v>
+        <v>14.03582906227093</v>
       </c>
       <c r="L11">
-        <v>10.06788604482039</v>
+        <v>7.717483694428251</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.46219293071936</v>
+        <v>18.48071517120712</v>
       </c>
       <c r="C12">
-        <v>7.040712253289068</v>
+        <v>7.165278854652674</v>
       </c>
       <c r="D12">
-        <v>6.608180339508592</v>
+        <v>9.173804788843212</v>
       </c>
       <c r="E12">
-        <v>11.64765571210227</v>
+        <v>9.055235218506752</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>67.54497974995351</v>
+        <v>81.03256087304162</v>
       </c>
       <c r="H12">
-        <v>22.96952688597961</v>
+        <v>21.64196362792059</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.46847362548043</v>
+        <v>14.2273146214636</v>
       </c>
       <c r="L12">
-        <v>10.07253894375041</v>
+        <v>7.778741089244931</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.45282921879013</v>
+        <v>18.42556043849749</v>
       </c>
       <c r="C13">
-        <v>7.037561983587526</v>
+        <v>7.156286331508602</v>
       </c>
       <c r="D13">
-        <v>6.600738603766082</v>
+        <v>9.146896998785616</v>
       </c>
       <c r="E13">
-        <v>11.64634600305599</v>
+        <v>9.042828193267747</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>67.49004265128272</v>
+        <v>80.8541151012975</v>
       </c>
       <c r="H13">
-        <v>22.96171030104787</v>
+        <v>21.60671165954453</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.46324735994394</v>
+        <v>14.18620220209519</v>
       </c>
       <c r="L13">
-        <v>10.07152404016533</v>
+        <v>7.765536051120544</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.42239059922462</v>
+        <v>18.24505971398447</v>
       </c>
       <c r="C14">
-        <v>7.027249749500173</v>
+        <v>7.126945328854631</v>
       </c>
       <c r="D14">
-        <v>6.576455498203858</v>
+        <v>9.058813581325269</v>
       </c>
       <c r="E14">
-        <v>11.6421160284537</v>
+        <v>9.002432568180879</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>67.31078007269517</v>
+        <v>80.27136652648664</v>
       </c>
       <c r="H14">
-        <v>22.93626181969961</v>
+        <v>21.49178607064817</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.44629573858441</v>
+        <v>14.05164032569942</v>
       </c>
       <c r="L14">
-        <v>10.06826306214797</v>
+        <v>7.722517898384876</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.40382246395017</v>
+        <v>18.13401130974771</v>
       </c>
       <c r="C15">
-        <v>7.020903612313119</v>
+        <v>7.108961097353424</v>
       </c>
       <c r="D15">
-        <v>6.561571281338073</v>
+        <v>9.004603785963694</v>
       </c>
       <c r="E15">
-        <v>11.63955680065029</v>
+        <v>8.977739947372166</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>67.20090240775622</v>
+        <v>79.91380041202699</v>
       </c>
       <c r="H15">
-        <v>22.92070728350394</v>
+        <v>21.42142005462953</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.43598373073312</v>
+        <v>13.96884170480813</v>
       </c>
       <c r="L15">
-        <v>10.0663031902635</v>
+        <v>7.696203634182208</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.2986166656455</v>
+        <v>17.49006009263882</v>
       </c>
       <c r="C16">
-        <v>6.984082984236685</v>
+        <v>7.005679546378278</v>
       </c>
       <c r="D16">
-        <v>6.476147384676654</v>
+        <v>8.689958460504949</v>
       </c>
       <c r="E16">
-        <v>11.6253792191591</v>
+        <v>8.837011713507117</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>66.57023699967688</v>
+        <v>77.85521972695541</v>
       </c>
       <c r="H16">
-        <v>22.8320935747188</v>
+        <v>21.01861110729669</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.37799859237003</v>
+        <v>13.48849355630773</v>
       </c>
       <c r="L16">
-        <v>10.05564939630183</v>
+        <v>7.54595404823838</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.23517968965044</v>
+        <v>17.08813030467723</v>
       </c>
       <c r="C17">
-        <v>6.961090242431703</v>
+        <v>6.942084212635062</v>
       </c>
       <c r="D17">
-        <v>6.423657302423165</v>
+        <v>8.493304603755728</v>
       </c>
       <c r="E17">
-        <v>11.61711917018286</v>
+        <v>8.751368376363367</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>66.18259989510325</v>
+        <v>76.58381532036674</v>
       </c>
       <c r="H17">
-        <v>22.77821072192606</v>
+        <v>20.77187228283367</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.34343221315477</v>
+        <v>13.18847303496938</v>
       </c>
       <c r="L17">
-        <v>10.0496305350051</v>
+        <v>7.454272801089161</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.1991104442778</v>
+        <v>16.8543733356857</v>
       </c>
       <c r="C18">
-        <v>6.947716853526598</v>
+        <v>6.905405059849283</v>
       </c>
       <c r="D18">
-        <v>6.393446879805803</v>
+        <v>8.378834769811903</v>
       </c>
       <c r="E18">
-        <v>11.6125296161391</v>
+        <v>8.702361396107934</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>65.9594272579223</v>
+        <v>75.8494011226809</v>
       </c>
       <c r="H18">
-        <v>22.74739940443859</v>
+        <v>20.63008885378087</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.32392639549916</v>
+        <v>13.01390341934495</v>
       </c>
       <c r="L18">
-        <v>10.04635922042535</v>
+        <v>7.401723673419608</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.18697098855047</v>
+        <v>16.77478034761083</v>
       </c>
       <c r="C19">
-        <v>6.943163343862367</v>
+        <v>6.892967535419402</v>
       </c>
       <c r="D19">
-        <v>6.383215937162849</v>
+        <v>8.339841325291253</v>
       </c>
       <c r="E19">
-        <v>11.61100345331866</v>
+        <v>8.685811926679783</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>65.88383376412656</v>
+        <v>75.60020392414138</v>
       </c>
       <c r="H19">
-        <v>22.73699869464753</v>
+        <v>20.58210649542645</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.31738719549668</v>
+        <v>12.95444878102997</v>
       </c>
       <c r="L19">
-        <v>10.04528439662328</v>
+        <v>7.383963308833439</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.24188968034645</v>
+        <v>17.13118217515627</v>
       </c>
       <c r="C20">
-        <v>6.963553237343692</v>
+        <v>6.948864167796617</v>
       </c>
       <c r="D20">
-        <v>6.429247250797711</v>
+        <v>8.514378897175458</v>
       </c>
       <c r="E20">
-        <v>11.61798177569076</v>
+        <v>8.760459095596783</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>66.22388802694755</v>
+        <v>76.71948330415798</v>
       </c>
       <c r="H20">
-        <v>22.78392805009755</v>
+        <v>20.79812415178483</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.34707310365268</v>
+        <v>13.22061738833933</v>
       </c>
       <c r="L20">
-        <v>10.05025154268747</v>
+        <v>7.464013512286057</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.43131530981455</v>
+        <v>18.29817823922973</v>
       </c>
       <c r="C21">
-        <v>7.030284870748618</v>
+        <v>7.135565906178131</v>
       </c>
       <c r="D21">
-        <v>6.583590205491316</v>
+        <v>9.084739041348399</v>
       </c>
       <c r="E21">
-        <v>11.64335186102497</v>
+        <v>9.014287128644147</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>67.36344961533585</v>
+        <v>80.44266200427404</v>
       </c>
       <c r="H21">
-        <v>22.94372972341207</v>
+        <v>21.52553635970027</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.4512600083071</v>
+        <v>14.09124242284908</v>
       </c>
       <c r="L21">
-        <v>10.06921306447589</v>
+        <v>7.735145953524111</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.55856933152689</v>
+        <v>19.03897317440755</v>
       </c>
       <c r="C22">
-        <v>7.072573389245321</v>
+        <v>7.257008763332882</v>
       </c>
       <c r="D22">
-        <v>6.684041119090535</v>
+        <v>9.445966013000486</v>
       </c>
       <c r="E22">
-        <v>11.66135569364427</v>
+        <v>9.182453069405922</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>68.10505920907652</v>
+        <v>82.84838621514967</v>
       </c>
       <c r="H22">
-        <v>23.04967677924213</v>
+        <v>22.00224037771986</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.52256278957121</v>
+        <v>14.6433195512487</v>
       </c>
       <c r="L22">
-        <v>10.08328883171742</v>
+        <v>7.913945595505218</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.49034870329508</v>
+        <v>18.64554588102675</v>
       </c>
       <c r="C23">
-        <v>7.050124461080473</v>
+        <v>7.192228327149549</v>
       </c>
       <c r="D23">
-        <v>6.630478752278816</v>
+        <v>9.254198658762185</v>
       </c>
       <c r="E23">
-        <v>11.65161723467602</v>
+        <v>9.092489105316385</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>67.70959715017601</v>
+        <v>81.56688691192765</v>
       </c>
       <c r="H23">
-        <v>22.9929979150697</v>
+        <v>21.74768608336653</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.48422019649977</v>
+        <v>14.35016628583284</v>
       </c>
       <c r="L23">
-        <v>10.07562302111448</v>
+        <v>7.818370386221122</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.23885483991041</v>
+        <v>17.11172678992292</v>
       </c>
       <c r="C24">
-        <v>6.962440198763474</v>
+        <v>6.945799318937336</v>
       </c>
       <c r="D24">
-        <v>6.426720135699177</v>
+        <v>8.504855609923791</v>
       </c>
       <c r="E24">
-        <v>11.61759129553309</v>
+        <v>8.756348463504159</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>66.20522262928755</v>
+        <v>76.65815860733073</v>
       </c>
       <c r="H24">
-        <v>22.78134272574688</v>
+        <v>20.78625546430177</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.34542591286192</v>
+        <v>13.20609142679849</v>
       </c>
       <c r="L24">
-        <v>10.04997019623729</v>
+        <v>7.459609238861383</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.98370545594099</v>
+        <v>15.35829116825323</v>
       </c>
       <c r="C25">
-        <v>6.862179340597359</v>
+        <v>6.676001955225733</v>
       </c>
       <c r="D25">
-        <v>6.206347970868531</v>
+        <v>7.644307992612945</v>
       </c>
       <c r="E25">
-        <v>11.58706600878184</v>
+        <v>8.403471803216538</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>64.5751018599542</v>
+        <v>71.24446794797727</v>
       </c>
       <c r="H25">
-        <v>22.56000002298026</v>
+        <v>19.75446416164223</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.2101512194327</v>
+        <v>11.89490116959813</v>
       </c>
       <c r="L25">
-        <v>10.02959093542027</v>
+        <v>7.079742346061346</v>
       </c>
       <c r="M25">
         <v>0</v>
